--- a/biology/Zoologie/Gallinule_sombre/Gallinule_sombre.xlsx
+++ b/biology/Zoologie/Gallinule_sombre/Gallinule_sombre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gallinula tenebrosa
 La Gallinule sombre (Gallinula tenebrosa) est une espèce d'oiseaux de la famille des rallidés qui vit en Australie, en Nouvelle-Guinée et en Indonésie.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes sont principalement gris foncé-noir, avec une teinte plus foncée sur les parties supérieures. Il a un bouclier frontal rouge et un bec jaune à l'extrémité rouge comme son cousin eurasien mais n'a pas la ligne de flanc blanche de la Gallinule poule-d'eau et a les pattes jaune-orangé plutôt que jaunes.
 Les deux sexes sont semblables mais les juvéniles ont le plumage brun. Il s'agit d'une espèce bruyante avec un fort appel "Kruk".
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans des habitats humides, avec une préférence pour les marais d'eau douce. Il se nourrit sur les décharges, et est généralement omnivore, consommant une grande variété de plantes et d'animaux.
 </t>
@@ -576,7 +592,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce construit un nid volumineux au bord de l'eau, et y pond 5 à 18 œufs blanchâtres. Il est territorial en période de reproduction, mais grégaire le reste du temps.
 </t>
@@ -607,7 +625,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gallinula tenebrosa tenebrosa
 Gallinula tenebrosa frontata
